--- a/FPR1120-ASA-K9_VI.xlsx
+++ b/FPR1120-ASA-K9_VI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\cisco_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197ED92D-279E-4D0C-A155-ED1418A21300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6A79FA-09DA-4E5F-A2AD-84653EE5FE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
